--- a/slides/metamodel-survey.xlsx
+++ b/slides/metamodel-survey.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelkoster/Library/Containers/com.microsoft.Excel/Data/Desktop/presentations/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4249F258-B40C-0444-82D1-4DF4DFD2665A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="440" windowWidth="27940" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
   <si>
     <t>OneDM SDF</t>
   </si>
@@ -450,12 +451,36 @@
   </si>
   <si>
     <t>Network Binding</t>
+  </si>
+  <si>
+    <t>OPC UA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPC </t>
+  </si>
+  <si>
+    <t>Method, Program</t>
+  </si>
+  <si>
+    <t>register types</t>
+  </si>
+  <si>
+    <t>Event, Alarm</t>
+  </si>
+  <si>
+    <t>https://opcfoundation.org/developer-tools/specifications-unified-architecture</t>
+  </si>
+  <si>
+    <t>Attribute,Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Server, Node</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -616,6 +641,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -883,12 +911,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H25" sqref="H25"/>
+      <selection pane="topRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -896,11 +924,11 @@
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="12" width="15.83203125" style="2" customWidth="1"/>
     <col min="13" max="14" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
     <col min="16" max="17" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -943,8 +971,11 @@
       <c r="N2" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -987,8 +1018,11 @@
       <c r="N3" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1020,7 +1054,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1050,7 +1084,7 @@
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1093,8 +1127,11 @@
       <c r="N6" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1137,8 +1174,9 @@
       <c r="N7" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -1181,11 +1219,14 @@
       <c r="N8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1228,8 +1269,11 @@
       <c r="N10" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -1272,8 +1316,11 @@
       <c r="N11" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1316,8 +1363,11 @@
       <c r="N12" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -1360,8 +1410,11 @@
       <c r="N13" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -1404,8 +1457,11 @@
       <c r="N14" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -1448,8 +1504,11 @@
       <c r="N15" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1492,17 +1551,20 @@
       <c r="N16" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>59</v>
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -1545,8 +1607,11 @@
       <c r="N19" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1590,7 +1655,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1634,7 +1699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -1666,30 +1731,31 @@
       <c r="M22" s="7"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N24" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M8" r:id="rId1"/>
-    <hyperlink ref="N8" r:id="rId2"/>
-    <hyperlink ref="J8" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="G8" r:id="rId8"/>
-    <hyperlink ref="H8" r:id="rId9"/>
-    <hyperlink ref="K8" r:id="rId10"/>
-    <hyperlink ref="I8" r:id="rId11"/>
-    <hyperlink ref="L8" r:id="rId12"/>
-    <hyperlink ref="E8" r:id="rId13"/>
+    <hyperlink ref="M8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
